--- a/out/production/大二java课设/test1.xlsx
+++ b/out/production/大二java课设/test1.xlsx
@@ -12,12 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>123</t>
   </si>
   <si>
-    <t>123312</t>
+    <t>我是excel</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>我也是excel</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>还是excel</t>
   </si>
 </sst>
 </file>
@@ -62,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -73,7 +85,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -81,13 +93,24 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
